--- a/artfynd/A 69515-2021.xlsx
+++ b/artfynd/A 69515-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71742638</v>
+        <v>72019226</v>
       </c>
       <c r="B2" t="n">
         <v>101120</v>
@@ -717,9 +717,10 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vid dike i Järleboskogen, Upl</t>
+          <t>V om Skarnäs, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -729,7 +730,7 @@
         <v>6669748.896088809</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-06-06</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-06-06</t>
+          <t>2018-05-14</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,6 +778,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
